--- a/Data/Test SWV/Excel Files/Pbp2.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A148"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dec. 8, 2022   17:40:30</t>
+          <t>Dec. 8</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022   17:40:30</t>
         </is>
       </c>
     </row>
@@ -543,882 +548,2772 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.004, -6.096e-7, -3.101e-7, 2.994e-7</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.096e-7</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.101e-7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.994e-7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.008, -6.141e-7, -3.219e-7, 2.922e-7</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.141e-7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.219e-7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.922e-7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.012, -6.133e-7, -3.260e-7, 2.872e-7</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.133e-7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.260e-7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.872e-7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.016, -6.125e-7, -3.295e-7, 2.830e-7</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.125e-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.295e-7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.830e-7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.020, -6.116e-7, -3.325e-7, 2.792e-7</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.116e-7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.325e-7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.792e-7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.024, -6.110e-7, -3.352e-7, 2.758e-7</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.110e-7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.352e-7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.758e-7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.028, -6.107e-7, -3.378e-7, 2.728e-7</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.107e-7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.378e-7</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.728e-7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.032, -6.100e-7, -3.401e-7, 2.698e-7</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.100e-7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.401e-7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.698e-7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.036, -6.096e-7, -3.424e-7, 2.672e-7</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.096e-7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.424e-7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.672e-7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.040, -6.095e-7, -3.446e-7, 2.649e-7</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.095e-7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.446e-7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.649e-7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.044, -6.094e-7, -3.467e-7, 2.627e-7</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.094e-7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.467e-7</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.627e-7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.048, -6.092e-7, -3.488e-7, 2.604e-7</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.092e-7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.488e-7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.604e-7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.052, -6.091e-7, -3.506e-7, 2.585e-7</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.091e-7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.506e-7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.585e-7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.056, -6.095e-7, -3.528e-7, 2.568e-7</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.095e-7</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.528e-7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.568e-7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.060, -6.097e-7, -3.546e-7, 2.551e-7</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.097e-7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.546e-7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.551e-7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.064, -6.099e-7, -3.565e-7, 2.534e-7</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.099e-7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.565e-7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.534e-7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.068, -6.105e-7, -3.585e-7, 2.520e-7</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.105e-7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.585e-7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.520e-7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.072, -6.112e-7, -3.605e-7, 2.507e-7</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.112e-7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.605e-7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.507e-7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.076, -6.119e-7, -3.625e-7, 2.495e-7</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.119e-7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.625e-7</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.495e-7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.080, -6.126e-7, -3.643e-7, 2.484e-7</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.126e-7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.643e-7</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.484e-7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.084, -6.133e-7, -3.663e-7, 2.471e-7</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.133e-7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.663e-7</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.471e-7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.088, -6.143e-7, -3.682e-7, 2.461e-7</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.143e-7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.682e-7</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.461e-7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.092, -6.155e-7, -3.703e-7, 2.452e-7</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.155e-7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.703e-7</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.452e-7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.096, -6.168e-7, -3.724e-7, 2.444e-7</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.168e-7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.724e-7</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.444e-7</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.100, -6.181e-7, -3.746e-7, 2.435e-7</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.181e-7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.746e-7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.435e-7</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.104, -6.198e-7, -3.769e-7, 2.429e-7</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.198e-7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.769e-7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.429e-7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.108, -6.214e-7, -3.792e-7, 2.422e-7</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.214e-7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.792e-7</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.422e-7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.112, -6.233e-7, -3.817e-7, 2.416e-7</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.233e-7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.817e-7</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.416e-7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.116, -6.252e-7, -3.841e-7, 2.411e-7</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.252e-7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.841e-7</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.411e-7</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.120, -6.277e-7, -3.869e-7, 2.408e-7</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.277e-7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.869e-7</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.408e-7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.124, -6.303e-7, -3.897e-7, 2.406e-7</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.303e-7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.897e-7</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.406e-7</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.128, -6.330e-7, -3.927e-7, 2.403e-7</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.330e-7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.927e-7</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.403e-7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.132, -6.363e-7, -3.960e-7, 2.403e-7</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.363e-7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.960e-7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.403e-7</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.136, -6.394e-7, -3.993e-7, 2.401e-7</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.394e-7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.993e-7</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.401e-7</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.140, -6.433e-7, -4.030e-7, 2.403e-7</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.433e-7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.030e-7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.403e-7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.144, -6.474e-7, -4.069e-7, 2.405e-7</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.474e-7</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.069e-7</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.405e-7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.148, -6.520e-7, -4.111e-7, 2.409e-7</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.520e-7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.111e-7</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.409e-7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.152, -6.571e-7, -4.156e-7, 2.414e-7</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.571e-7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.156e-7</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.414e-7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.156, -6.624e-7, -4.205e-7, 2.420e-7</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.624e-7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.205e-7</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.420e-7</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.160, -6.682e-7, -4.254e-7, 2.428e-7</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.682e-7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.254e-7</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.428e-7</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.164, -6.748e-7, -4.310e-7, 2.437e-7</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.748e-7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.310e-7</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.437e-7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.168, -6.817e-7, -4.367e-7, 2.450e-7</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.817e-7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.367e-7</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.450e-7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.172, -6.892e-7, -4.428e-7, 2.464e-7</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.892e-7</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.428e-7</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.464e-7</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.176, -6.970e-7, -4.491e-7, 2.479e-7</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.970e-7</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.491e-7</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.479e-7</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.180, -7.055e-7, -4.559e-7, 2.497e-7</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.055e-7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.559e-7</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.497e-7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.184, -7.145e-7, -4.628e-7, 2.518e-7</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.145e-7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.628e-7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.518e-7</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.188, -7.241e-7, -4.700e-7, 2.541e-7</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.241e-7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.700e-7</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.541e-7</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.192, -7.337e-7, -4.772e-7, 2.565e-7</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.337e-7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.772e-7</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.565e-7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.196, -7.440e-7, -4.849e-7, 2.591e-7</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.440e-7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.849e-7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.591e-7</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.200, -7.542e-7, -4.924e-7, 2.618e-7</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.542e-7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.924e-7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.618e-7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.204, -7.656e-7, -5.005e-7, 2.651e-7</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.656e-7</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.005e-7</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.651e-7</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.208, -7.766e-7, -5.081e-7, 2.686e-7</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.766e-7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.081e-7</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.686e-7</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.212, -7.880e-7, -5.161e-7, 2.719e-7</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.880e-7</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.161e-7</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.719e-7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.216, -7.997e-7, -5.240e-7, 2.757e-7</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.997e-7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.240e-7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.757e-7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.220, -8.114e-7, -5.319e-7, 2.796e-7</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.114e-7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.319e-7</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.796e-7</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.224, -8.231e-7, -5.393e-7, 2.838e-7</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.231e-7</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.393e-7</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.838e-7</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.228, -8.350e-7, -5.471e-7, 2.879e-7</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.350e-7</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.471e-7</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.879e-7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.232, -8.468e-7, -5.545e-7, 2.923e-7</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.468e-7</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.545e-7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.923e-7</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.236, -8.585e-7, -5.620e-7, 2.965e-7</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.585e-7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.620e-7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.965e-7</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.240, -8.699e-7, -5.691e-7, 3.008e-7</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.699e-7</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.691e-7</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.008e-7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.244, -8.811e-7, -5.759e-7, 3.053e-7</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.811e-7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.759e-7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.053e-7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.248, -8.920e-7, -5.825e-7, 3.095e-7</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.920e-7</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.825e-7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.095e-7</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.252, -9.027e-7, -5.892e-7, 3.135e-7</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.027e-7</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.892e-7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.135e-7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.256, -9.131e-7, -5.956e-7, 3.175e-7</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.131e-7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.956e-7</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.175e-7</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.260, -9.232e-7, -6.018e-7, 3.214e-7</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.232e-7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.018e-7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.214e-7</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.264, -9.324e-7, -6.075e-7, 3.249e-7</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.324e-7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.075e-7</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.249e-7</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.268, -9.413e-7, -6.130e-7, 3.283e-7</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.413e-7</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.130e-7</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.283e-7</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.272, -9.497e-7, -6.183e-7, 3.314e-7</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.497e-7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.183e-7</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.314e-7</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.276, -9.571e-7, -6.231e-7, 3.340e-7</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.571e-7</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.231e-7</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.340e-7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.280, -9.643e-7, -6.279e-7, 3.364e-7</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.643e-7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.279e-7</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.364e-7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.284, -9.708e-7, -6.324e-7, 3.385e-7</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.708e-7</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.324e-7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.385e-7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.288, -9.766e-7, -6.365e-7, 3.401e-7</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.766e-7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.365e-7</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.401e-7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.292, -9.816e-7, -6.403e-7, 3.414e-7</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.816e-7</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.403e-7</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.414e-7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.296, -9.860e-7, -6.437e-7, 3.423e-7</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.860e-7</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.437e-7</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.423e-7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.300, -9.897e-7, -6.471e-7, 3.426e-7</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.897e-7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.471e-7</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.426e-7</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.304, -9.928e-7, -6.500e-7, 3.429e-7</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.928e-7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.500e-7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.429e-7</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.308, -9.952e-7, -6.527e-7, 3.425e-7</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.952e-7</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.527e-7</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.425e-7</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.312, -9.969e-7, -6.552e-7, 3.418e-7</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.969e-7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.552e-7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.418e-7</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.316, -9.982e-7, -6.574e-7, 3.408e-7</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.982e-7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.574e-7</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.408e-7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.320, -9.988e-7, -6.594e-7, 3.394e-7</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.988e-7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.594e-7</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.394e-7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.324, -9.989e-7, -6.614e-7, 3.375e-7</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.989e-7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.614e-7</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.375e-7</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.328, -9.983e-7, -6.630e-7, 3.353e-7</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.983e-7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.630e-7</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.353e-7</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.332, -9.976e-7, -6.647e-7, 3.329e-7</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.976e-7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.647e-7</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.329e-7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.336, -9.962e-7, -6.661e-7, 3.301e-7</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.962e-7</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.661e-7</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.301e-7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.340, -9.947e-7, -6.676e-7, 3.271e-7</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.947e-7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.676e-7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.271e-7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.344, -9.928e-7, -6.692e-7, 3.237e-7</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.928e-7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.692e-7</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.237e-7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.348, -9.908e-7, -6.707e-7, 3.201e-7</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.908e-7</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.707e-7</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.201e-7</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.352, -9.883e-7, -6.721e-7, 3.161e-7</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.883e-7</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.721e-7</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.161e-7</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.356, -9.859e-7, -6.739e-7, 3.120e-7</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.859e-7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.739e-7</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.120e-7</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.360, -9.837e-7, -6.758e-7, 3.080e-7</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.837e-7</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.758e-7</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.080e-7</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.364, -9.813e-7, -6.776e-7, 3.036e-7</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.813e-7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.776e-7</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.036e-7</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.368, -9.790e-7, -6.797e-7, 2.993e-7</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.790e-7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.797e-7</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.993e-7</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.372, -9.767e-7, -6.820e-7, 2.947e-7</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.767e-7</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.820e-7</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.947e-7</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.376, -9.750e-7, -6.846e-7, 2.904e-7</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.750e-7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.846e-7</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.904e-7</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.380, -9.735e-7, -6.875e-7, 2.860e-7</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.735e-7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.875e-7</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.860e-7</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.384, -9.720e-7, -6.904e-7, 2.815e-7</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.720e-7</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.904e-7</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.815e-7</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.388, -9.712e-7, -6.940e-7, 2.772e-7</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.712e-7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.940e-7</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.772e-7</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.392, -9.704e-7, -6.976e-7, 2.729e-7</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.704e-7</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.976e-7</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.729e-7</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.396, -9.704e-7, -7.016e-7, 2.688e-7</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.704e-7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.016e-7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.688e-7</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.400, -9.705e-7, -7.059e-7, 2.647e-7</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.705e-7</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.059e-7</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.647e-7</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.404, -9.713e-7, -7.106e-7, 2.607e-7</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.713e-7</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.106e-7</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.607e-7</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.408, -9.724e-7, -7.157e-7, 2.567e-7</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.724e-7</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.157e-7</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.567e-7</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.412, -9.739e-7, -7.211e-7, 2.528e-7</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.739e-7</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.211e-7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.528e-7</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.416, -9.757e-7, -7.267e-7, 2.490e-7</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.757e-7</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.267e-7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.490e-7</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.420, -9.781e-7, -7.328e-7, 2.453e-7</t>
+          <t>-0.420</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.781e-7</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.328e-7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.453e-7</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.424, -9.810e-7, -7.393e-7, 2.417e-7</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.810e-7</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.393e-7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.417e-7</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.428, -9.844e-7, -7.463e-7, 2.381e-7</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.844e-7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.463e-7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.381e-7</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.432, -9.881e-7, -7.535e-7, 2.346e-7</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.881e-7</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.535e-7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.346e-7</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.436, -9.920e-7, -7.610e-7, 2.310e-7</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.920e-7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.610e-7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.310e-7</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.440, -9.965e-7, -7.689e-7, 2.275e-7</t>
+          <t>-0.440</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.965e-7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.689e-7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.275e-7</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.444, -1.001e-6, -7.774e-7, 2.240e-7</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.001e-6</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.774e-7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.240e-7</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.448, -1.007e-6, -7.861e-7, 2.207e-7</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.007e-6</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.861e-7</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.207e-7</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.452, -1.012e-6, -7.953e-7, 2.172e-7</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.012e-6</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.953e-7</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.172e-7</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.456, -1.018e-6, -8.049e-7, 2.136e-7</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.018e-6</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.049e-7</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.136e-7</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.460, -1.025e-6, -8.150e-7, 2.100e-7</t>
+          <t>-0.460</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.025e-6</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.150e-7</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.100e-7</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.464, -1.032e-6, -8.255e-7, 2.066e-7</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.032e-6</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.255e-7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.066e-7</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.468, -1.039e-6, -8.364e-7, 2.030e-7</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.039e-6</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.364e-7</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.030e-7</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.472, -1.047e-6, -8.475e-7, 1.993e-7</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.047e-6</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.475e-7</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.993e-7</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.476, -1.055e-6, -8.595e-7, 1.957e-7</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.055e-6</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.595e-7</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.957e-7</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.480, -1.063e-6, -8.716e-7, 1.919e-7</t>
+          <t>-0.480</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.063e-6</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.716e-7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.919e-7</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.484, -1.072e-6, -8.843e-7, 1.879e-7</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.072e-6</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.843e-7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.879e-7</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.488, -1.082e-6, -8.976e-7, 1.840e-7</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.082e-6</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.976e-7</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.840e-7</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.492, -1.091e-6, -9.112e-7, 1.799e-7</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.091e-6</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.112e-7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.799e-7</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>-0.496, -1.101e-6, -9.255e-7, 1.755e-7</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.101e-6</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.255e-7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.755e-7</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>-0.500, -1.112e-6, -9.403e-7, 1.713e-7</t>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.112e-6</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.403e-7</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.713e-7</t>
         </is>
       </c>
     </row>
